--- a/output_by_subject/HS713.xlsx
+++ b/output_by_subject/HS713.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +685,28 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2121HS13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HS713</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CREDIT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
